--- a/doc/04_DB定義書_バスター・ムーン.xlsx
+++ b/doc/04_DB定義書_バスター・ムーン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\グループ関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C44F0B7-EB71-4E42-96FF-E228B13F1178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3405F7-0A8C-4315-B2D9-EF0553077FB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7270" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -429,10 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>genre</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -512,6 +508,10 @@
   </si>
   <si>
     <t>posts_genre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -653,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,9 +688,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1558,7 +1555,7 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3"/>
@@ -1587,7 +1584,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -1617,7 +1614,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2068,7 +2065,7 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3"/>
@@ -2094,9 +2091,9 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="3"/>
@@ -2125,7 +2122,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2151,7 +2148,7 @@
         <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2159,7 +2156,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2234,7 +2231,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2471,7 +2468,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2509,10 +2506,10 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
         <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2530,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2546,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2562,7 +2559,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2609,10 +2606,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
@@ -2641,7 +2638,7 @@
       <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="3"/>
@@ -2663,9 +2660,9 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="3"/>
@@ -2676,7 +2673,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>value INT ,</v>
+        <v>price INT ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2687,7 +2684,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>47</v>
@@ -2697,7 +2694,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="12"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">posts_genre INT </v>
@@ -3007,7 +3004,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3120,7 +3117,7 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3"/>
@@ -3146,9 +3143,9 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="3"/>
@@ -3172,7 +3169,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>44</v>
@@ -3199,7 +3196,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3220,10 +3217,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -3246,7 +3243,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>47</v>
@@ -3270,7 +3267,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
@@ -3294,7 +3291,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>47</v>
@@ -3314,11 +3311,11 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>47</v>
@@ -3342,10 +3339,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3">
         <v>140</v>
@@ -3356,7 +3353,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L15:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v>text VARCHAR (140),</v>
       </c>
     </row>
@@ -3562,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5F8DCF-A0CF-4B30-8CE1-F9DAE9B5CCE5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3676,7 +3673,7 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3"/>
@@ -3702,9 +3699,9 @@
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="3"/>
@@ -3728,7 +3725,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>44</v>
@@ -4073,7 +4070,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4186,7 +4183,7 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3"/>
@@ -4212,9 +4209,9 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="3"/>
@@ -4240,7 +4237,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>44</v>
@@ -4584,7 +4581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C7F619-6897-48B0-ABF0-7BA4131E62FE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -4698,7 +4695,7 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3"/>
@@ -4724,9 +4721,9 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="3"/>

--- a/doc/04_DB定義書_バスター・ムーン.xlsx
+++ b/doc/04_DB定義書_バスター・ムーン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3405F7-0A8C-4315-B2D9-EF0553077FB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0FF771-38B8-4F6E-A65D-86423CD02469}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7270" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="85">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1036,8 +1036,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4069,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2501CC-E33E-4C18-834F-1C6B8F80E7A5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4216,9 +4216,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>45</v>
       </c>
@@ -4581,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C7F619-6897-48B0-ABF0-7BA4131E62FE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_バスター・ムーン.xlsx
+++ b/doc/04_DB定義書_バスター・ムーン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0FF771-38B8-4F6E-A65D-86423CD02469}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285FE769-8713-4805-998A-46A2039A32FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1441,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4069,7 +4069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2501CC-E33E-4C18-834F-1C6B8F80E7A5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_バスター・ムーン.xlsx
+++ b/doc/04_DB定義書_バスター・ムーン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285FE769-8713-4805-998A-46A2039A32FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46CB488-DF8A-45F8-967D-D73E36F74EC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -278,16 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>徒歩時間＋提供時間</t>
-    <rPh sb="0" eb="4">
-      <t>トホジカン</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>テイキョウジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -422,10 +412,6 @@
   </si>
   <si>
     <t>photo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>time</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -512,6 +498,60 @@
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介</t>
+    <rPh sb="0" eb="4">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>募集ID</t>
+    <rPh sb="0" eb="2">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gathers_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提供時間</t>
+    <rPh sb="0" eb="4">
+      <t>テイキョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徒歩時間(片道)</t>
+    <rPh sb="0" eb="4">
+      <t>トホジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カタミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posts_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1036,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1114,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -1129,10 +1169,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -1144,10 +1184,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1159,10 +1199,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1177,7 +1217,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -1189,10 +1229,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1204,10 +1244,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -1441,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1460,7 +1500,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1550,20 +1590,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1578,29 +1618,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>mail_address VARCHAR (30),</v>
+        <v>mail_address VARCHAR (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1611,10 +1651,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -1952,7 +1992,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1970,7 +2010,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2060,20 +2100,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2091,20 +2131,20 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2116,13 +2156,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2145,18 +2185,20 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2167,10 +2209,18 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3">
+        <v>140</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2178,7 +2228,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">icon  </v>
+        <v>icon VARCHAR (140),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2196,7 +2246,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C14&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">introduction  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2465,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C96F248-F528-4871-AF35-46CAA08DD385}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2486,7 +2536,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
         <v>33</v>
@@ -2506,10 +2556,10 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2527,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2543,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2559,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2606,25 +2656,25 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>posts_restaurant VARCHAR (20),</v>
       </c>
     </row>
@@ -2633,13 +2683,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2647,23 +2697,19 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>time INT ,</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2673,49 +2719,57 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>price INT ,</v>
+        <v>serve INT ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>33</v>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="12"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">posts_genre INT </v>
+        <v>price INT ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="12"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">posts_genre INT </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2732,7 +2786,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2740,7 +2794,7 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2750,7 +2804,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2758,6 +2812,7 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2775,7 +2830,6 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2988,7 +3042,25 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3003,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68198748-C4A7-4E74-B25E-BC47A4DAD6DB}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A2" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3022,7 +3094,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3112,20 +3184,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3143,16 +3215,16 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3166,13 +3238,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3193,12 +3265,14 @@
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3217,10 +3291,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -3243,10 +3317,10 @@
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3267,10 +3341,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3291,10 +3365,10 @@
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3315,10 +3389,10 @@
         <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3339,10 +3413,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="3">
         <v>140</v>
@@ -3362,13 +3436,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3559,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5F8DCF-A0CF-4B30-8CE1-F9DAE9B5CCE5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3668,20 +3742,20 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3696,24 +3770,24 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3721,14 +3795,540 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>date DATE ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>point INT ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2501CC-E33E-4C18-834F-1C6B8F80E7A5}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="72" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id INT ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>users_id INT ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3746,13 +4346,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4065,12 +4665,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2501CC-E33E-4C18-834F-1C6B8F80E7A5}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C7F619-6897-48B0-ABF0-7BA4131E62FE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4178,20 +4778,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4209,19 +4809,21 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>users_id INT ,</v>
@@ -4232,38 +4834,34 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>date DATE ,</v>
+        <v xml:space="preserve">gathers_id INT </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4272,7 +4870,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">point INT </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4573,504 +5171,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C7F619-6897-48B0-ABF0-7BA4131E62FE}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id INT ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">users_id INT </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>